--- a/biology/Zoologie/Epictia_albipuncta/Epictia_albipuncta.xlsx
+++ b/biology/Zoologie/Epictia_albipuncta/Epictia_albipuncta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Epictia albipuncta est une espèce de serpents de la famille des Leptotyphlopidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Epictia albipuncta est une espèce de serpents de la famille des Leptotyphlopidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Venezuela, Argentine, au Pérou, en Bolivie, au Paraguay et au Brésil[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Venezuela, Argentine, au Pérou, en Bolivie, au Paraguay et au Brésil.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Kretzschmar en 2006[2] a placé Leptotyphlops melanotermus et Leptotyphlops weyrauchi en synonymie avec Epictia albipuncta et a démontré que Burmeister avait la priorité sur Jan.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kretzschmar en 2006 a placé Leptotyphlops melanotermus et Leptotyphlops weyrauchi en synonymie avec Epictia albipuncta et a démontré que Burmeister avait la priorité sur Jan.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Burmeister, 1861 : Reise durch die La Plata Staaten mit besonderer Rücksicht auf die physische Beschaffenheit und den Culturzustand der Argentinischen Republik. Ausgeführt in den Jahren 1857, 1858, 1859 und 1860. Halle, H.W. Schmidt, p. 1-538 (texte intégral).</t>
         </is>
